--- a/Documentacao/Estimativas.xlsx
+++ b/Documentacao/Estimativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\ISEL\PS\ProjectoFInal\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A179DFC7-EF46-40EF-9CD5-C52892412D8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139D3C1-CF47-4426-A37E-E816855111CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7164626F-C57A-4903-BF5E-34B0018640FB}"/>
   </bookViews>
@@ -220,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -402,11 +402,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -425,9 +458,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -449,13 +479,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968F1FF1-E007-4E70-811E-024FA45B8541}">
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D29"/>
     </sheetView>
   </sheetViews>
@@ -790,13 +836,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -804,13 +850,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>43899</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
@@ -887,15 +933,15 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+    <row r="11" spans="2:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21">
         <f t="shared" si="0"/>
         <v>43955</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -937,7 +983,7 @@
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -949,9 +995,7 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
@@ -968,7 +1012,7 @@
         <f t="shared" si="0"/>
         <v>44004</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="6"/>
@@ -981,7 +1025,7 @@
         <f t="shared" si="0"/>
         <v>44011</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="6"/>
       <c r="F19" s="2"/>
     </row>
@@ -990,7 +1034,7 @@
         <f t="shared" si="0"/>
         <v>44018</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="6"/>
       <c r="F20" s="2"/>
     </row>
@@ -999,7 +1043,7 @@
         <f t="shared" si="0"/>
         <v>44025</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="6"/>
       <c r="F21" s="2"/>
     </row>
@@ -1008,7 +1052,7 @@
         <f t="shared" si="0"/>
         <v>44032</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="6"/>
       <c r="F22" s="2"/>
     </row>
@@ -1020,7 +1064,9 @@
       <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
@@ -1073,14 +1119,14 @@
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <f>+B28+7</f>
         <v>44081</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1088,7 +1134,10 @@
       <c r="E30" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacao/Estimativas.xlsx
+++ b/Documentacao/Estimativas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\ISEL\PS\ProjectoFInal\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\ProjetoFinal\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139D3C1-CF47-4426-A37E-E816855111CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B64E4E-9781-452D-8126-56508FF96B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7164626F-C57A-4903-BF5E-34B0018640FB}"/>
+    <workbookView xWindow="0" yWindow="2880" windowWidth="13620" windowHeight="11385" xr2:uid="{7164626F-C57A-4903-BF5E-34B0018640FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -45,34 +47,12 @@
     <t>Introduction to docker, react, bash, python</t>
   </si>
   <si>
-    <t>Set up DB, Environment CLR + Node, Environment JVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Environment CLR + Node, Environment JVM, Python Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Runtime CLR + Node, Python Environment, Question MS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Questionnaire MS, UsersMS, Question Page</t>
-  </si>
-  <si>
     <t>Project Proposal 16 Mar</t>
   </si>
   <si>
     <t>Progress Report and Individual presentation</t>
   </si>
   <si>
-    <t>Progress Report and Individual presentation 4 May
-Environments</t>
-  </si>
-  <si>
-    <t>Poster and Beta version</t>
-  </si>
-  <si>
     <t>Poster and Beta version 1 June</t>
   </si>
   <si>
@@ -94,119 +74,53 @@
     <t>Exams</t>
   </si>
   <si>
-    <t xml:space="preserve"> Environment CLR + Node, Environment JVM,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Environment CLR + Node, Environment JVM, </t>
-  </si>
-  <si>
-    <t>Questionnaire MS Home page , User profile page, Question Page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Login and Sign in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , Questionnaire submit, Edit/Create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Questionnaire Page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Home page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , User profile page, Question Page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Home page </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , User profile page, Edit/Create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Questionnaire Page</t>
-    </r>
-  </si>
-  <si>
-    <t>Challenge MS,  Python Environment , Webserver react configuration</t>
-  </si>
-  <si>
-    <t>Challenge MS, Python Environment , Webserver react configuration</t>
-  </si>
-  <si>
-    <t>Challenge MS, Questionnaire MS, UsersMS</t>
+    <t>Set up DB, webserver react configuration, Environment JVM</t>
+  </si>
+  <si>
+    <t>Challenges service, User Services, Questionnaire service</t>
+  </si>
+  <si>
+    <t>Poster and Beta version, Questionnaire service</t>
+  </si>
+  <si>
+    <t>Environment JVM, Environment Node, Execute code page</t>
+  </si>
+  <si>
+    <t>Environment JVM,Environment Node, Execute code page</t>
+  </si>
+  <si>
+    <t>Environment JVM, Environment Node, Home Page</t>
+  </si>
+  <si>
+    <t>Chanllenges service, Home Page, User Services</t>
+  </si>
+  <si>
+    <t>Challenge Page, Environment Python, Environment CLR</t>
+  </si>
+  <si>
+    <t>Login Signin Page, Questionnaire Fill Page, Auth Service</t>
+  </si>
+  <si>
+    <t>Challenges service, User Profile Page, Questionnaire service</t>
+  </si>
+  <si>
+    <t>Challenges service,  User Profile Page, Questionnaire service</t>
+  </si>
+  <si>
+    <t>Progress Report and Individual presentation 4 May</t>
+  </si>
+  <si>
+    <t>Cloud environment deployment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,6 +402,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -496,12 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,23 +733,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968F1FF1-E007-4E70-811E-024FA45B8541}">
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -846,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>43899</v>
       </c>
@@ -858,279 +772,277 @@
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <f>+B3+7</f>
         <v>43906</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <f>+B4+7</f>
         <v>43913</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <f>+B5+7</f>
         <v>43920</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <f t="shared" ref="B7:B27" si="0">+B6+7</f>
         <v>43927</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>43934</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f>+B8+7</f>
         <v>43941</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+    <row r="11" spans="2:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
         <f t="shared" si="0"/>
         <v>43955</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>43962</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>43969</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>43976</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>43962</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>43969</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>43976</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>43983</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>43990</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f>+B16+7</f>
         <v>43997</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>44004</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>19</v>
+      <c r="C18" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="6"/>
       <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>44011</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="6"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>44018</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="6"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>44025</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="6"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>44032</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="6"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>44039</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>44060</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <f t="shared" si="0"/>
-        <v>44060</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>44067</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f>+B27+7</f>
         <v>44074</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <f>+B28+7</f>
         <v>44081</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
     </row>
   </sheetData>

--- a/Documentacao/Estimativas.xlsx
+++ b/Documentacao/Estimativas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\ProjetoFinal\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\ISEL\PS\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B64E4E-9781-452D-8126-56508FF96B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DB114-D6F4-4835-B976-8B344CA0DBFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="13620" windowHeight="11385" xr2:uid="{7164626F-C57A-4903-BF5E-34B0018640FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{7164626F-C57A-4903-BF5E-34B0018640FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>entrega trabalhos/exames</t>
-  </si>
-  <si>
-    <t>epoca exames</t>
   </si>
   <si>
     <t>Exams</t>
@@ -435,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -734,7 +731,7 @@
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +775,7 @@
         <v>43906</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
@@ -790,7 +787,7 @@
         <v>43913</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -800,7 +797,7 @@
         <v>43920</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -810,7 +807,7 @@
         <v>43927</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -820,7 +817,7 @@
         <v>43934</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" t="s">
@@ -853,10 +850,10 @@
         <v>43955</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -865,7 +862,7 @@
         <v>43962</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -875,7 +872,7 @@
         <v>43969</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -885,7 +882,7 @@
         <v>43976</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -895,7 +892,7 @@
         <v>43983</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>6</v>
@@ -907,7 +904,7 @@
         <v>43990</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="17"/>
     </row>
@@ -917,7 +914,7 @@
         <v>43997</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -927,12 +924,10 @@
         <v>44004</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
@@ -976,7 +971,7 @@
         <v>44039</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -986,7 +981,7 @@
         <v>44046</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -996,7 +991,7 @@
         <v>44053</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -1006,7 +1001,7 @@
         <v>44060</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -1016,7 +1011,7 @@
         <v>44067</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6"/>
     </row>
